--- a/Datasets/Treated/Obesity_Europe.xlsx
+++ b/Datasets/Treated/Obesity_Europe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ppcro\Desktop\Universidade\Mestrado\1º ano\2º Semestre\Sistemas de Gestão de Dados\PA-Statistical Analysis\SGD_Data-Analysis\Datasets\Treated\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A340254-DB6A-4C2B-94FB-828931286840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C01BEB97-4881-40FA-9762-61CF62AAD127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3828" yWindow="2940" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -150,10 +150,10 @@
     <t>Serbia</t>
   </si>
   <si>
-    <t>Türkiye</t>
-  </si>
-  <si>
     <t>Country</t>
+  </si>
+  <si>
+    <t>Turkey</t>
   </si>
 </sst>
 </file>
@@ -473,15 +473,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1201,7 +1201,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37" t="s">
         <v>39</v>
